--- a/results/data/FW1.1.xlsx
+++ b/results/data/FW1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>C INDUSTRIE</t>
   </si>
@@ -28,10 +28,16 @@
     <t xml:space="preserve">G GROOT-EN DETAILHANDEL; REPARATIE VAN AUTO'S EN MOTORFIETSEN </t>
   </si>
   <si>
-    <t xml:space="preserve">H VERVOER EN OPSLAG </t>
+    <t xml:space="preserve">K FINANCIËLE ACTIVITEITEN EN VERZEKERINGEN </t>
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>ROUTE INZAMELING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S OVERIGE DIENSTEN </t>
   </si>
   <si>
     <t>MeldPeriodeJAAR</t>
@@ -410,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -438,143 +444,185 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>38274.60799999999</v>
+        <v>40512.46099999999</v>
       </c>
       <c r="C2">
-        <v>127417.938</v>
+        <v>96616.05500000001</v>
       </c>
       <c r="D2">
-        <v>9598.289999999997</v>
+        <v>4518.900000000001</v>
       </c>
       <c r="E2">
-        <v>88306.15399999999</v>
+        <v>78622.24299999999</v>
       </c>
       <c r="F2">
-        <v>12393.01</v>
+        <v>9521.900000000001</v>
       </c>
       <c r="G2">
-        <v>8339.772000000001</v>
+        <v>17979.174</v>
+      </c>
+      <c r="H2">
+        <v>28851.019</v>
+      </c>
+      <c r="I2">
+        <v>7713.319999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>49542.828</v>
+        <v>46818.20299999999</v>
       </c>
       <c r="C3">
-        <v>88410.50200000002</v>
+        <v>82638.74900000003</v>
       </c>
       <c r="D3">
-        <v>9090.438</v>
+        <v>4602.969999999999</v>
       </c>
       <c r="E3">
-        <v>105432.498</v>
+        <v>95933.296</v>
       </c>
       <c r="F3">
-        <v>7006.898999999999</v>
+        <v>11546.72</v>
       </c>
       <c r="G3">
-        <v>8630.031000000001</v>
+        <v>14218.637</v>
+      </c>
+      <c r="H3">
+        <v>6248.979</v>
+      </c>
+      <c r="I3">
+        <v>6109.702</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>48350.02400000002</v>
+        <v>49047.04100000001</v>
       </c>
       <c r="C4">
-        <v>96658.51499999997</v>
+        <v>93883.23799999997</v>
       </c>
       <c r="D4">
-        <v>7232.122999999998</v>
+        <v>5487.252999999998</v>
       </c>
       <c r="E4">
-        <v>88405.55400000003</v>
+        <v>77011.965</v>
       </c>
       <c r="F4">
-        <v>65440.57599999999</v>
+        <v>8543.461000000001</v>
       </c>
       <c r="G4">
-        <v>8347.609</v>
+        <v>8779.119000000001</v>
+      </c>
+      <c r="H4">
+        <v>3445.2</v>
+      </c>
+      <c r="I4">
+        <v>5892.900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>50309.85799999999</v>
+        <v>53769.88199999999</v>
       </c>
       <c r="C5">
-        <v>95852.893</v>
+        <v>91098.00200000001</v>
       </c>
       <c r="D5">
-        <v>9178.302999999998</v>
+        <v>6903.963</v>
       </c>
       <c r="E5">
-        <v>84761.90100000001</v>
+        <v>74212.17</v>
       </c>
       <c r="F5">
-        <v>2991.691</v>
+        <v>9002.671</v>
       </c>
       <c r="G5">
-        <v>12024.204</v>
+        <v>9632.267841999999</v>
+      </c>
+      <c r="H5">
+        <v>5282.18</v>
+      </c>
+      <c r="I5">
+        <v>5163.360000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>52848.774</v>
+        <v>55534.09799999998</v>
       </c>
       <c r="C6">
-        <v>112199.3539999999</v>
+        <v>79891.89099999996</v>
       </c>
       <c r="D6">
-        <v>8940.602999999999</v>
+        <v>6876.739999999998</v>
       </c>
       <c r="E6">
-        <v>88043.85199999997</v>
+        <v>78803.49800000001</v>
       </c>
       <c r="F6">
-        <v>2638.237</v>
+        <v>9512.293000000001</v>
       </c>
       <c r="G6">
-        <v>30132.42099999999</v>
+        <v>26777.032</v>
+      </c>
+      <c r="H6">
+        <v>33239.068</v>
+      </c>
+      <c r="I6">
+        <v>3783.581</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>50663.916</v>
+        <v>52495.68</v>
       </c>
       <c r="C7">
-        <v>101524.817</v>
+        <v>73923.45199999998</v>
       </c>
       <c r="D7">
-        <v>9313.044999999998</v>
+        <v>7708.081999999999</v>
       </c>
       <c r="E7">
-        <v>80276.30099999999</v>
+        <v>74741.859</v>
       </c>
       <c r="F7">
-        <v>3730.215</v>
+        <v>10911.788</v>
       </c>
       <c r="G7">
-        <v>29156.211</v>
+        <v>25290.382</v>
+      </c>
+      <c r="H7">
+        <v>28838.519</v>
+      </c>
+      <c r="I7">
+        <v>746.3629999999999</v>
       </c>
     </row>
   </sheetData>
